--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3293980.406574512</v>
+        <v>3297385.897698962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9971593390836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>85.43740959461577</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>34.6668981482228</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.4995705420888</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>90.05347083351255</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2562799623274</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292569</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>75.98795371712644</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.23490948285903</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.3165365479897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>72.07252234110602</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734100762</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>133.6422908616038</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>258.2317318494244</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249715</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.60776438732</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>270.069702148647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>59.90320919298944</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>198.4632691970538</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>86.87333351823541</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.69473660442891</v>
+        <v>173.6268892744746</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>575.4989583075089</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>217.2332597007584</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1962.274737210612</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>980.6066514154681</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>980.6066514154681</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>569.6207466258606</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2541.088918753486</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1969.685596455435</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340179</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>808.0839286340179</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>449.8182300272674</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089254</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.1038984121913</v>
+        <v>953.2024825836316</v>
       </c>
       <c r="C13" t="n">
-        <v>339.1038984121913</v>
+        <v>784.2662996557248</v>
       </c>
       <c r="D13" t="n">
-        <v>339.1038984121913</v>
+        <v>634.149660243389</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>486.2365666609959</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.1038984121913</v>
+        <v>1134.850947413871</v>
       </c>
     </row>
     <row r="14">
@@ -5266,46 +5266,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846823</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518747</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.23671557753</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5348,22 +5348,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.2638710736754</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,28 +5521,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846823</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.23671557753</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390117</v>
@@ -5837,34 +5837,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5955,7 +5955,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839441</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>960.5079561277488</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>739.7153769842187</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277723</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563071</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622695</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294618</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353399</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232735</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193579</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320224</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008797</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501053</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208094</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838489</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858315</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423014</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,7 +6572,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6581,13 +6581,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7120416113844</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C31" t="n">
-        <v>654.7198286198654</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,16 +6624,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6648,25 +6648,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689059</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689059</v>
+        <v>1192.220376077348</v>
       </c>
       <c r="V31" t="n">
-        <v>1420.142636483172</v>
+        <v>937.5358878714605</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.142636483172</v>
+        <v>648.1187178345</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.153085585154</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.3605064416241</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3348.500285847604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6776,13 +6776,13 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6791,22 +6791,22 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6864,13 +6864,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931531</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208131</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838525</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858352</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.904311342305</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176197</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1287.040180767971</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2265.590483597799</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>2812.369300656582</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986037</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7165,61 +7165,61 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7083461157131</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C40" t="n">
-        <v>323.7721631878062</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D40" t="n">
-        <v>323.7721631878062</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>323.7721631878062</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>323.7721631878062</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>156.0693265625252</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7338,13 +7338,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230348</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>1245.00603511598</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>955.5888650790198</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894829</v>
+        <v>727.5993141810025</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459528</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U43" t="n">
-        <v>1883.949150983575</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V43" t="n">
-        <v>1629.264662777688</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.847492740728</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.85794184271</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.0653626991802</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427189</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196073</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867997</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094644</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7806,31 +7806,31 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
         <v>1780.96276986786</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792044</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476935</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>226.768859619309</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>50.84927212317382</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476823</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476822</v>
+        <v>133.2530576400276</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476822</v>
+        <v>258.6211785616946</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>69.4330943058048</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.3497438692358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.26811680410505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>2.335964134057178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>153.6371330479311</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696938</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004747</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.60453023702408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618851</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.1421360569658</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696591</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>84.85180572133135</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>53.67437412677424</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>214.5414662356952</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>131.7113198338594</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>105.074288727013</v>
+        <v>16.1421360569673</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196327</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522203</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="F2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="G2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="H2" t="n">
         <v>694893.1270522204</v>
       </c>
       <c r="I2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="J2" t="n">
-        <v>694893.1270522202</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="K2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="L2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="N2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="O2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="P2" t="n">
         <v>694893.1270522205</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925916</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.489772785134846e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709199</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709189</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-146622.0050391358</v>
       </c>
       <c r="C6" t="n">
-        <v>443345.8741754085</v>
+        <v>443345.8741754087</v>
       </c>
       <c r="D6" t="n">
-        <v>443345.8741754087</v>
+        <v>443345.874175409</v>
       </c>
       <c r="E6" t="n">
-        <v>-151159.3680942495</v>
+        <v>-150554.6086822176</v>
       </c>
       <c r="F6" t="n">
-        <v>576218.0458991572</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="G6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111895</v>
       </c>
       <c r="H6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.8053111891</v>
       </c>
       <c r="I6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="J6" t="n">
-        <v>399794.826706565</v>
+        <v>400399.5861185963</v>
       </c>
       <c r="K6" t="n">
-        <v>576218.0458991557</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="L6" t="n">
-        <v>576218.0458991571</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="M6" t="n">
-        <v>446575.7310602123</v>
+        <v>447180.4904722445</v>
       </c>
       <c r="N6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111895</v>
       </c>
       <c r="O6" t="n">
-        <v>576218.0458991573</v>
+        <v>576822.8053111897</v>
       </c>
       <c r="P6" t="n">
-        <v>576218.0458991572</v>
+        <v>576822.8053111891</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26761,25 +26761,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.888766031702071e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>240.9332107331782</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>242.3148488755191</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>379.1172718725722</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>19.91614226688276</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>122.0920681165064</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10.67409010993435</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.975201561408184</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.28113760038</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781682</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837982</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098815</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970266</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>856.4357419408409</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502533</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502526</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407857</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265642</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400244</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302254</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129101</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882179</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908533</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636234</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152068</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597674</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004648</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.578416613066</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>734.8218605075283</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>506.4393865155061</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400146</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359016</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359016</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525822</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
